--- a/jour3.xlsx
+++ b/jour3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Le_Goff', 'Silva', 'Innocent']</t>
-  </si>
-  <si>
-    <t>['Del_Castillo', 'Duverne', 'Magnetti']</t>
-  </si>
-  <si>
-    <t>['Dante', 'Pepe']</t>
-  </si>
-  <si>
-    <t>['Medina', 'Sylla', 'Pereira']</t>
-  </si>
-  <si>
-    <t>['Sakho']</t>
-  </si>
-  <si>
-    <t>['Kalimuendo']</t>
-  </si>
-  <si>
-    <t>['Bain', 'Lipinski']</t>
+    <t>['Lepenant', 'Lega']</t>
+  </si>
+  <si>
+    <t>['Bellegarde', 'Perrin', 'Gameiro']</t>
+  </si>
+  <si>
+    <t>['Ruiz']</t>
+  </si>
+  <si>
+    <t>['Michelin', 'Silla']</t>
+  </si>
+  <si>
+    <t>['Kalimuendo', 'Wooh']</t>
+  </si>
+  <si>
+    <t>['Flips']</t>
+  </si>
+  <si>
+    <t>['Kroupi', 'Ponceau']</t>
+  </si>
+  <si>
+    <t>['Alioui', 'Doumbia']</t>
+  </si>
+  <si>
+    <t>['Beka', 'Moffi']</t>
+  </si>
+  <si>
+    <t>['Nordin']</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>['Girotto', 'Castelletto']</t>
+  </si>
+  <si>
+    <t>['Gomes', 'Yoro']</t>
+  </si>
+  <si>
+    <t>['Mounie']</t>
+  </si>
+  <si>
+    <t>['Borges', 'Massolin']</t>
+  </si>
+  <si>
+    <t>['Ounahi', 'Bailly', 'Bailly']</t>
+  </si>
+  <si>
+    <t>['Healey']</t>
+  </si>
+  <si>
+    <t>['Jeanvier', 'Merdji', 'Bain']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Flips']</t>
-  </si>
-  <si>
-    <t>['Conte', 'Lopez', 'Odobert']</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>['Bailly', 'Gigot']</t>
-  </si>
-  <si>
-    <t>['Yoro', 'Cabella', 'Andre', 'Yoro']</t>
-  </si>
-  <si>
-    <t>['Ramos']</t>
-  </si>
-  <si>
-    <t>['Dallinga', 'Dejaegere', 'Dejaegere']</t>
-  </si>
-  <si>
-    <t>['Masson']</t>
-  </si>
-  <si>
-    <t>['Jakobs']</t>
-  </si>
-  <si>
-    <t>['Alphonse', "N'Diaye"]</t>
-  </si>
-  <si>
-    <t>['Cherki', 'Gusto']</t>
-  </si>
-  <si>
-    <t>['Sanson', 'Le_Marchand']</t>
+    <t>['Palaversa', 'Conte']</t>
+  </si>
+  <si>
+    <t>['Jakobs', 'Ben_Yedder']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -558,7 +561,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -590,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -599,7 +602,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -607,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -616,7 +619,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -636,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -645,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -657,7 +660,7 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -665,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -674,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -686,7 +689,7 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -735,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -744,7 +747,7 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -752,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -761,10 +764,10 @@
         <v>25</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
         <v>0</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -773,7 +776,7 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -781,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -790,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -810,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -819,19 +822,19 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/jour3.xlsx
+++ b/jour3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,115 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Lepenant', 'Lega']</t>
-  </si>
-  <si>
-    <t>['Bellegarde', 'Perrin', 'Gameiro']</t>
-  </si>
-  <si>
-    <t>['Ruiz']</t>
-  </si>
-  <si>
-    <t>['Michelin', 'Silla']</t>
-  </si>
-  <si>
-    <t>['Kalimuendo', 'Wooh']</t>
-  </si>
-  <si>
-    <t>['Flips']</t>
-  </si>
-  <si>
-    <t>['Kroupi', 'Ponceau']</t>
-  </si>
-  <si>
-    <t>['Alioui', 'Doumbia']</t>
-  </si>
-  <si>
-    <t>['Beka', 'Moffi']</t>
-  </si>
-  <si>
-    <t>['Nordin']</t>
+    <t>['Wooh', 'Majer']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Silva', 'Pelon', 'Pelon', 'Kroupi']</t>
+  </si>
+  <si>
+    <t>['Sylla']</t>
+  </si>
+  <si>
+    <t>['Abdelhamid']</t>
+  </si>
+  <si>
+    <t>['Lienard']</t>
+  </si>
+  <si>
+    <t>['Messi', 'Mendes', 'Kipembe']</t>
+  </si>
+  <si>
+    <t>['Doumbia']</t>
+  </si>
+  <si>
+    <t>Rennes</t>
   </si>
   <si>
     <t>OL</t>
   </si>
   <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
     <t>Strasbourg</t>
   </si>
   <si>
     <t>PSG</t>
   </si>
   <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Angers</t>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Clermont</t>
   </si>
   <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>Montpellier</t>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
   </si>
   <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>Lille</t>
-  </si>
-  <si>
     <t>Brest</t>
   </si>
   <si>
-    <t>Clermont</t>
-  </si>
-  <si>
     <t>OM</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>['Girotto', 'Castelletto']</t>
-  </si>
-  <si>
-    <t>['Gomes', 'Yoro']</t>
-  </si>
-  <si>
-    <t>['Mounie']</t>
-  </si>
-  <si>
-    <t>['Borges', 'Massolin']</t>
-  </si>
-  <si>
-    <t>['Ounahi', 'Bailly', 'Bailly']</t>
-  </si>
-  <si>
-    <t>['Healey']</t>
-  </si>
-  <si>
-    <t>['Jeanvier', 'Merdji', 'Bain']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Palaversa', 'Conte']</t>
-  </si>
-  <si>
-    <t>['Jakobs', 'Ben_Yedder']</t>
+    <t>['Michelin', 'Michelin']</t>
+  </si>
+  <si>
+    <t>['Jakobs']</t>
+  </si>
+  <si>
+    <t>['Ratao', 'Spierings']</t>
+  </si>
+  <si>
+    <t>['Cisse', 'Borges']</t>
+  </si>
+  <si>
+    <t>['Beka']</t>
+  </si>
+  <si>
+    <t>['Gomes', 'Yoro', 'Gomes']</t>
+  </si>
+  <si>
+    <t>['Autret', 'Autret']</t>
+  </si>
+  <si>
+    <t>['Le_Douaron']</t>
+  </si>
+  <si>
+    <t>['Rongier', 'Bailly', 'Clauss', 'Kabore']</t>
   </si>
 </sst>
 </file>
@@ -558,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -567,10 +558,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -581,28 +572,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -610,28 +601,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,25 +630,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -668,28 +659,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,28 +688,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,28 +717,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,25 +746,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -784,28 +775,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -816,25 +807,25 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/jour3.xlsx
+++ b/jour3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,115 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Wooh', 'Majer']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Silva', 'Pelon', 'Pelon', 'Kroupi']</t>
-  </si>
-  <si>
-    <t>['Sylla']</t>
-  </si>
-  <si>
-    <t>['Abdelhamid']</t>
-  </si>
-  <si>
-    <t>['Lienard']</t>
-  </si>
-  <si>
-    <t>['Messi', 'Mendes', 'Kipembe']</t>
-  </si>
-  <si>
-    <t>['Doumbia']</t>
+    <t>['H.Diallo', 'Delaine', 'Gameiro']</t>
+  </si>
+  <si>
+    <t>['Ben_Yedder', 'Maripan', 'Pele']</t>
+  </si>
+  <si>
+    <t>['Pelon', 'Pelon', 'Laporte']</t>
+  </si>
+  <si>
+    <t>['Khazri', 'Maouassa', 'Tchato']</t>
+  </si>
+  <si>
+    <t>['Traore', 'Kalimuendo']</t>
+  </si>
+  <si>
+    <t>['Yoro', 'Gomes']</t>
+  </si>
+  <si>
+    <t>['Lebas', 'Alphonse']</t>
+  </si>
+  <si>
+    <t>['Kabore', 'Kabore']</t>
+  </si>
+  <si>
+    <t>['Bayo']</t>
+  </si>
+  <si>
+    <t>['Van_den_Boomen']</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
     <t>OL</t>
   </si>
   <si>
-    <t>Lorient</t>
+    <t>Auxerre</t>
   </si>
   <si>
     <t>Lens</t>
   </si>
   <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>['Michelin', 'Michelin']</t>
-  </si>
-  <si>
-    <t>['Jakobs']</t>
-  </si>
-  <si>
-    <t>['Ratao', 'Spierings']</t>
-  </si>
-  <si>
-    <t>['Cisse', 'Borges']</t>
-  </si>
-  <si>
-    <t>['Beka']</t>
-  </si>
-  <si>
-    <t>['Gomes', 'Yoro', 'Gomes']</t>
-  </si>
-  <si>
-    <t>['Autret', 'Autret']</t>
-  </si>
-  <si>
-    <t>['Le_Douaron']</t>
-  </si>
-  <si>
-    <t>['Rongier', 'Bailly', 'Clauss', 'Kabore']</t>
+    <t>['Chardonnet', 'Duverne']</t>
+  </si>
+  <si>
+    <t>['Porozo']</t>
+  </si>
+  <si>
+    <t>['Aouar']</t>
+  </si>
+  <si>
+    <t>['Dembele', 'Autret']</t>
+  </si>
+  <si>
+    <t>['Ganiou', 'Ganiou']</t>
+  </si>
+  <si>
+    <t>['Delort', 'Ganago']</t>
+  </si>
+  <si>
+    <t>['Moffi', 'Moffi']</t>
+  </si>
+  <si>
+    <t>['Ramos', 'Neymar']</t>
+  </si>
+  <si>
+    <t>['Doumbia', 'Bamba', 'Masson']</t>
+  </si>
+  <si>
+    <t>['Munetsi', 'Abdelhamid', 'Munetsi']</t>
   </si>
 </sst>
 </file>
@@ -543,25 +552,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -569,28 +578,28 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -598,57 +607,57 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -656,86 +665,86 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -743,89 +752,89 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour3.xlsx
+++ b/jour3.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['H.Diallo', 'Delaine', 'Gameiro']</t>
-  </si>
-  <si>
-    <t>['Ben_Yedder', 'Maripan', 'Pele']</t>
-  </si>
-  <si>
-    <t>['Pelon', 'Pelon', 'Laporte']</t>
-  </si>
-  <si>
-    <t>['Khazri', 'Maouassa', 'Tchato']</t>
-  </si>
-  <si>
-    <t>['Traore', 'Kalimuendo']</t>
-  </si>
-  <si>
-    <t>['Yoro', 'Gomes']</t>
-  </si>
-  <si>
-    <t>['Lebas', 'Alphonse']</t>
-  </si>
-  <si>
-    <t>['Kabore', 'Kabore']</t>
-  </si>
-  <si>
-    <t>['Bayo']</t>
-  </si>
-  <si>
-    <t>['Van_den_Boomen']</t>
+    <t>['Lemarechal', 'Mounie', 'Brassier']</t>
+  </si>
+  <si>
+    <t>['Bercola', 'Caqueret', 'Tagliafico']</t>
+  </si>
+  <si>
+    <t>['Doumbia', 'Corduan']</t>
+  </si>
+  <si>
+    <t>['Conte', 'Conte']</t>
+  </si>
+  <si>
+    <t>['Beka', 'Dante']</t>
+  </si>
+  <si>
+    <t>['Assignon', 'Majer']</t>
+  </si>
+  <si>
+    <t>['Silva']</t>
+  </si>
+  <si>
+    <t>['Munetsi']</t>
+  </si>
+  <si>
+    <t>['Diallo']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
   </si>
   <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Rennes</t>
+    <t>Clermont</t>
   </si>
   <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>['Chardonnet', 'Duverne']</t>
-  </si>
-  <si>
-    <t>['Porozo']</t>
-  </si>
-  <si>
-    <t>['Aouar']</t>
-  </si>
-  <si>
-    <t>['Dembele', 'Autret']</t>
-  </si>
-  <si>
-    <t>['Ganiou', 'Ganiou']</t>
-  </si>
-  <si>
-    <t>['Delort', 'Ganago']</t>
-  </si>
-  <si>
-    <t>['Moffi', 'Moffi']</t>
-  </si>
-  <si>
-    <t>['Ramos', 'Neymar']</t>
-  </si>
-  <si>
-    <t>['Doumbia', 'Bamba', 'Masson']</t>
-  </si>
-  <si>
-    <t>['Munetsi', 'Abdelhamid', 'Munetsi']</t>
+    <t>['Sibide']</t>
+  </si>
+  <si>
+    <t>['Mavididi', 'Khazri', 'Mavididi']</t>
+  </si>
+  <si>
+    <t>['Ruiz', 'Soler']</t>
+  </si>
+  <si>
+    <t>['Varane', 'Pereira', 'Gradit']</t>
+  </si>
+  <si>
+    <t>['Balerdi', 'Payet', 'Balerdi']</t>
+  </si>
+  <si>
+    <t>['Da_Costa', 'Danois', 'Bain']</t>
+  </si>
+  <si>
+    <t>['Dejaegere', 'ChaÃ¯bi']</t>
+  </si>
+  <si>
+    <t>['H.Diallo', 'Sanson', 'Gameiro', 'Gameiro']</t>
+  </si>
+  <si>
+    <t>['Maurer', 'Borges']</t>
+  </si>
+  <si>
+    <t>['Gudmundsson', 'Andre']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -564,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,15 +573,15 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -593,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -636,10 +636,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,15 +660,15 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,15 +689,15 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -709,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,15 +718,15 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,7 +735,7 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -747,15 +747,15 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,10 +764,10 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,15 +776,15 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -810,10 +810,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>

--- a/jour3.xlsx
+++ b/jour3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['H.Diallo', 'Delaine', 'Gameiro']</t>
-  </si>
-  <si>
-    <t>['Ben_Yedder', 'Maripan', 'Pele']</t>
-  </si>
-  <si>
-    <t>['Pelon', 'Pelon', 'Laporte']</t>
-  </si>
-  <si>
-    <t>['Khazri', 'Maouassa', 'Tchato']</t>
-  </si>
-  <si>
-    <t>['Traore', 'Kalimuendo']</t>
-  </si>
-  <si>
-    <t>['Yoro', 'Gomes']</t>
-  </si>
-  <si>
-    <t>['Lebas', 'Alphonse']</t>
-  </si>
-  <si>
-    <t>['Kabore', 'Kabore']</t>
-  </si>
-  <si>
-    <t>['Bayo']</t>
-  </si>
-  <si>
-    <t>['Van_den_Boomen']</t>
+    <t>['Chardonnet', 'Chardonnet', 'Tavares', 'Brassier']</t>
+  </si>
+  <si>
+    <t>['Fortes', 'Medina', 'Varane']</t>
+  </si>
+  <si>
+    <t>['Martin', 'David', 'Cabella']</t>
+  </si>
+  <si>
+    <t>['Delort', 'Delort']</t>
+  </si>
+  <si>
+    <t>['Jakobs', 'Ben_Yedder']</t>
+  </si>
+  <si>
+    <t>['Maurer', 'Maurer']</t>
+  </si>
+  <si>
+    <t>['Neymar', 'Neymar']</t>
+  </si>
+  <si>
+    <t>['Flips', 'Lopy']</t>
+  </si>
+  <si>
+    <t>['Lepenant']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Angers</t>
   </si>
   <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>['Chardonnet', 'Duverne']</t>
-  </si>
-  <si>
-    <t>['Porozo']</t>
-  </si>
-  <si>
-    <t>['Aouar']</t>
-  </si>
-  <si>
-    <t>['Dembele', 'Autret']</t>
-  </si>
-  <si>
-    <t>['Ganiou', 'Ganiou']</t>
-  </si>
-  <si>
-    <t>['Delort', 'Ganago']</t>
-  </si>
-  <si>
-    <t>['Moffi', 'Moffi']</t>
-  </si>
-  <si>
-    <t>['Ramos', 'Neymar']</t>
-  </si>
-  <si>
-    <t>['Doumbia', 'Bamba', 'Masson']</t>
-  </si>
-  <si>
-    <t>['Munetsi', 'Abdelhamid', 'Munetsi']</t>
+    <t>['Theate']</t>
+  </si>
+  <si>
+    <t>['Hamouma']</t>
+  </si>
+  <si>
+    <t>['Conte']</t>
+  </si>
+  <si>
+    <t>['Gigot', 'Balerdi']</t>
+  </si>
+  <si>
+    <t>['Mavididi', 'Sakho', 'Nordin']</t>
+  </si>
+  <si>
+    <t>['Pelon', 'Le_Goff', 'Talbi']</t>
+  </si>
+  <si>
+    <t>['Dallinga', 'Dallinga', 'Dallinga']</t>
+  </si>
+  <si>
+    <t>['Masson', 'Doumbia']</t>
+  </si>
+  <si>
+    <t>['Perrin', 'Delaine']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +546,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -561,10 +558,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,12 +570,12 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -602,12 +599,12 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -631,12 +628,12 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -648,27 +645,27 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
+        <v>9</v>
+      </c>
+      <c r="B6">
         <v>1</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -686,10 +683,10 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,7 +694,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -709,24 +706,24 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -738,24 +735,24 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -767,24 +764,24 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -796,13 +793,13 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -810,10 +807,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,16 +819,16 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour3.xlsx
+++ b/jour3.xlsx
@@ -40,31 +40,31 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Lemarechal', 'Mounie', 'Brassier']</t>
-  </si>
-  <si>
-    <t>['Bercola', 'Caqueret', 'Tagliafico']</t>
-  </si>
-  <si>
-    <t>['Doumbia', 'Corduan']</t>
-  </si>
-  <si>
-    <t>['Conte', 'Conte']</t>
-  </si>
-  <si>
-    <t>['Beka', 'Dante']</t>
-  </si>
-  <si>
-    <t>['Assignon', 'Majer']</t>
-  </si>
-  <si>
-    <t>['Silva']</t>
-  </si>
-  <si>
-    <t>['Munetsi']</t>
-  </si>
-  <si>
-    <t>['Diallo']</t>
+    <t>['Tavares', 'Tavares', 'Elis', 'Mounie']</t>
+  </si>
+  <si>
+    <t>['Harit', 'Gigot']</t>
+  </si>
+  <si>
+    <t>['Sainte-Luce', 'Mavididi', 'Mavididi']</t>
+  </si>
+  <si>
+    <t>['Palaversa']</t>
+  </si>
+  <si>
+    <t>['Lipinski']</t>
+  </si>
+  <si>
+    <t>['Camara']</t>
+  </si>
+  <si>
+    <t>['Pepe']</t>
+  </si>
+  <si>
+    <t>['Tagliafico']</t>
+  </si>
+  <si>
+    <t>['Mendes']</t>
   </si>
   <si>
     <t>[]</t>
@@ -73,91 +73,91 @@
     <t>Brest</t>
   </si>
   <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
     <t>OL</t>
   </si>
   <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Nice</t>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Reims</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
+    <t>Lille</t>
   </si>
   <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>['Sibide']</t>
-  </si>
-  <si>
-    <t>['Mavididi', 'Khazri', 'Mavididi']</t>
-  </si>
-  <si>
-    <t>['Ruiz', 'Soler']</t>
-  </si>
-  <si>
-    <t>['Varane', 'Pereira', 'Gradit']</t>
-  </si>
-  <si>
-    <t>['Balerdi', 'Payet', 'Balerdi']</t>
-  </si>
-  <si>
-    <t>['Da_Costa', 'Danois', 'Bain']</t>
-  </si>
-  <si>
-    <t>['Dejaegere', 'ChaÃ¯bi']</t>
-  </si>
-  <si>
-    <t>['H.Diallo', 'Sanson', 'Gameiro', 'Gameiro']</t>
-  </si>
-  <si>
-    <t>['Maurer', 'Borges']</t>
-  </si>
-  <si>
-    <t>['Gudmundsson', 'Andre']</t>
+    <t>['Henrique']</t>
+  </si>
+  <si>
+    <t>['Versini']</t>
+  </si>
+  <si>
+    <t>['Healey', 'Dejaegere', 'Dejaegere', 'Spierings']</t>
+  </si>
+  <si>
+    <t>['Abdelhamid', 'Cajuste']</t>
+  </si>
+  <si>
+    <t>['Santamaria', 'Theate', 'Theate', 'Terrier']</t>
+  </si>
+  <si>
+    <t>['Valencia', 'Gradit', 'Medina']</t>
+  </si>
+  <si>
+    <t>['Girotto', 'Blas']</t>
+  </si>
+  <si>
+    <t>['Matsima', 'Matsima']</t>
+  </si>
+  <si>
+    <t>['Yoro', 'Burlet', 'Cabella']</t>
+  </si>
+  <si>
+    <t>['Delaine']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -561,7 +561,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -578,10 +578,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,15 +602,15 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,12 +631,12 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -648,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>2</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>

--- a/jour3.xlsx
+++ b/jour3.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Perrin', 'Perrin', 'Gameiro']</t>
-  </si>
-  <si>
-    <t>['ChaÃ¯bi', 'Dejaegere', 'Healey']</t>
-  </si>
-  <si>
-    <t>['Lepenant', 'Lepenant']</t>
-  </si>
-  <si>
-    <t>['Wooh', 'Terrier']</t>
-  </si>
-  <si>
-    <t>['Hamouma', 'Diallo']</t>
-  </si>
-  <si>
-    <t>['Pele', 'Aguilar']</t>
-  </si>
-  <si>
-    <t>['Silva']</t>
-  </si>
-  <si>
-    <t>['Neymar', 'Mendes']</t>
-  </si>
-  <si>
-    <t>['Cisse']</t>
-  </si>
-  <si>
-    <t>['Mollet']</t>
+    <t>['ChaÃ¯bi', 'Dallinga', 'Desler']</t>
+  </si>
+  <si>
+    <t>['Gastien', 'Boyer', 'Massolin']</t>
+  </si>
+  <si>
+    <t>['Dembele', 'Lipinski', 'Dugimont']</t>
+  </si>
+  <si>
+    <t>['Valencia', 'Gradit', 'Medina']</t>
+  </si>
+  <si>
+    <t>['Burlet', 'Yoro', 'Gomes']</t>
+  </si>
+  <si>
+    <t>['Elis', 'Le_Douaron']</t>
+  </si>
+  <si>
+    <t>['Le_Goff', 'Matsima']</t>
+  </si>
+  <si>
+    <t>['Gouiri', 'Traore']</t>
+  </si>
+  <si>
+    <t>['Gigot']</t>
+  </si>
+  <si>
+    <t>['Pepe', 'Brahimi']</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
   </si>
   <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Toulouse</t>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Angers</t>
   </si>
   <si>
     <t>OL</t>
   </si>
   <si>
-    <t>Rennes</t>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>PSG</t>
   </si>
   <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>['Ripart', 'Chavalerin']</t>
-  </si>
-  <si>
-    <t>['Fortes']</t>
-  </si>
-  <si>
-    <t>['Alioui']</t>
-  </si>
-  <si>
-    <t>['Moalida', 'Balogin']</t>
-  </si>
-  <si>
-    <t>['Del_Castillo', 'Brassier']</t>
-  </si>
-  <si>
-    <t>['Rongier', 'Kabore']</t>
-  </si>
-  <si>
-    <t>['Moffi']</t>
-  </si>
-  <si>
-    <t>['Tchato', 'Khazri', 'Maouassa']</t>
-  </si>
-  <si>
-    <t>['Merdji', 'Autret']</t>
-  </si>
-  <si>
-    <t>['Ribeiro', 'Gomes']</t>
+    <t>['Wahi', 'Tchato']</t>
+  </si>
+  <si>
+    <t>['Delaine', 'Le_Marchand']</t>
+  </si>
+  <si>
+    <t>['Lopez']</t>
+  </si>
+  <si>
+    <t>['Ito', 'Abdelhamid']</t>
+  </si>
+  <si>
+    <t>['Masson', 'Masson']</t>
+  </si>
+  <si>
+    <t>['Sanchez']</t>
+  </si>
+  <si>
+    <t>['Coco', 'Ganago']</t>
+  </si>
+  <si>
+    <t>['Ben_Yedder', 'Ben_Seguir']</t>
+  </si>
+  <si>
+    <t>['Neymar']</t>
+  </si>
+  <si>
+    <t>['Gonzalez', 'Hamouma', 'Silla']</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -593,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -619,7 +619,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -636,10 +636,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,7 +648,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -660,15 +660,15 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,7 +677,7 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -689,15 +689,15 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -709,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,12 +718,12 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -752,10 +752,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -767,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,15 +776,15 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -805,7 +805,7 @@
         <v>46</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>

--- a/jour3.xlsx
+++ b/jour3.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +43,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['ChaÃ¯bi', 'Dallinga', 'Desler']</t>
-  </si>
-  <si>
-    <t>['Gastien', 'Boyer', 'Massolin']</t>
-  </si>
-  <si>
-    <t>['Dembele', 'Lipinski', 'Dugimont']</t>
-  </si>
-  <si>
-    <t>['Valencia', 'Gradit', 'Medina']</t>
-  </si>
-  <si>
-    <t>['Burlet', 'Yoro', 'Gomes']</t>
-  </si>
-  <si>
-    <t>['Elis', 'Le_Douaron']</t>
-  </si>
-  <si>
-    <t>['Le_Goff', 'Matsima']</t>
-  </si>
-  <si>
-    <t>['Gouiri', 'Traore']</t>
-  </si>
-  <si>
-    <t>['Gigot']</t>
-  </si>
-  <si>
-    <t>['Pepe', 'Brahimi']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Ponceau', 'Pelon', 'Laporte', 'Talbi']</t>
+  </si>
+  <si>
+    <t>['Bercola', 'Aouar', 'Tagliafico', 'Cherki']</t>
+  </si>
+  <si>
+    <t>['Le_Douaron', 'Mounie', 'Mounie', 'Lemarechal']</t>
+  </si>
+  <si>
+    <t>['Jakobs', 'Pele']</t>
+  </si>
+  <si>
+    <t>['Khazri', 'Tchato']</t>
+  </si>
+  <si>
+    <t>['Versini', 'Versini']</t>
+  </si>
+  <si>
+    <t>['Ganago', 'Ganago']</t>
+  </si>
+  <si>
+    <t>['Rodon']</t>
+  </si>
+  <si>
+    <t>['Jeanvier']</t>
+  </si>
+  <si>
+    <t>['Gradit']</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Reims</t>
   </si>
   <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>['Wahi', 'Tchato']</t>
-  </si>
-  <si>
-    <t>['Delaine', 'Le_Marchand']</t>
-  </si>
-  <si>
-    <t>['Lopez']</t>
-  </si>
-  <si>
-    <t>['Ito', 'Abdelhamid']</t>
-  </si>
-  <si>
-    <t>['Masson', 'Masson']</t>
-  </si>
-  <si>
-    <t>['Sanchez']</t>
-  </si>
-  <si>
-    <t>['Coco', 'Ganago']</t>
-  </si>
-  <si>
-    <t>['Ben_Yedder', 'Ben_Seguir']</t>
-  </si>
-  <si>
-    <t>['Neymar']</t>
-  </si>
-  <si>
-    <t>['Gonzalez', 'Hamouma', 'Silla']</t>
+    <t>['Gudmundsson', 'Gudmundsson']</t>
+  </si>
+  <si>
+    <t>['Sanson']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Dante']</t>
+  </si>
+  <si>
+    <t>['Diallo']</t>
+  </si>
+  <si>
+    <t>['Balerdi', 'Bailly']</t>
+  </si>
+  <si>
+    <t>['Corduan', 'Alioui', 'Doumbia']</t>
+  </si>
+  <si>
+    <t>['Serhuis', 'Lopy', 'Balogin']</t>
+  </si>
+  <si>
+    <t>['Spierings', 'Van_den_Boomen']</t>
   </si>
 </sst>
 </file>
@@ -515,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,295 +549,361 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
       </c>
       <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>31</v>
+      <c r="G5">
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
-        <v>32</v>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
         <v>42</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8" t="s">
-        <v>34</v>
+      <c r="G8">
+        <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>2</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
       <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/jour3.xlsx
+++ b/jour3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Score dom</t>
   </si>
@@ -46,121 +46,118 @@
     <t>Score exte</t>
   </si>
   <si>
-    <t>['Ponceau', 'Pelon', 'Laporte', 'Talbi']</t>
-  </si>
-  <si>
-    <t>['Bercola', 'Aouar', 'Tagliafico', 'Cherki']</t>
-  </si>
-  <si>
-    <t>['Le_Douaron', 'Mounie', 'Mounie', 'Lemarechal']</t>
-  </si>
-  <si>
-    <t>['Jakobs', 'Pele']</t>
-  </si>
-  <si>
-    <t>['Khazri', 'Tchato']</t>
-  </si>
-  <si>
-    <t>['Versini', 'Versini']</t>
-  </si>
-  <si>
-    <t>['Ganago', 'Ganago']</t>
-  </si>
-  <si>
-    <t>['Rodon']</t>
-  </si>
-  <si>
-    <t>['Jeanvier']</t>
-  </si>
-  <si>
-    <t>['Gradit']</t>
+    <t>['Capelle', 'Mendy', 'Sima']</t>
+  </si>
+  <si>
+    <t>['Magnetti', 'Brassier', 'Elis']</t>
+  </si>
+  <si>
+    <t>['Dembele', 'Dembele']</t>
+  </si>
+  <si>
+    <t>['Sanchez', 'Caqueret']</t>
+  </si>
+  <si>
+    <t>['Maripan', 'Ben_Yedder']</t>
+  </si>
+  <si>
+    <t>['Gameiro', 'Mothiba']</t>
+  </si>
+  <si>
+    <t>['ChaÃ¯bi']</t>
+  </si>
+  <si>
+    <t>['Silva']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
   </si>
   <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Nantes</t>
   </si>
   <si>
     <t>Montpellier</t>
   </si>
   <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nantes</t>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Reims</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>['Gudmundsson', 'Gudmundsson']</t>
-  </si>
-  <si>
-    <t>['Sanson']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Dante']</t>
-  </si>
-  <si>
-    <t>['Diallo']</t>
-  </si>
-  <si>
-    <t>['Balerdi', 'Bailly']</t>
-  </si>
-  <si>
-    <t>['Corduan', 'Alioui', 'Doumbia']</t>
-  </si>
-  <si>
-    <t>['Serhuis', 'Lopy', 'Balogin']</t>
-  </si>
-  <si>
-    <t>['Spierings', 'Van_den_Boomen']</t>
+    <t>['Beka', 'Moffi']</t>
+  </si>
+  <si>
+    <t>['Mendes', 'Verrati']</t>
+  </si>
+  <si>
+    <t>['Lopez', 'Gigot', 'Harit']</t>
+  </si>
+  <si>
+    <t>['Gradit', 'Valencia', 'Fortes']</t>
+  </si>
+  <si>
+    <t>['Simon']</t>
+  </si>
+  <si>
+    <t>['Savanier', 'Wahi']</t>
+  </si>
+  <si>
+    <t>['Vidal', 'Alphonse']</t>
+  </si>
+  <si>
+    <t>['Abdelhamid', 'Cajuste', 'Lopy']</t>
+  </si>
+  <si>
+    <t>['Rodon', 'Santamaria']</t>
   </si>
 </sst>
 </file>
@@ -558,7 +555,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -570,30 +567,30 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -605,95 +602,95 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>4</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -701,42 +698,42 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -745,19 +742,19 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -768,45 +765,45 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -815,33 +812,33 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9">
         <v>3</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -850,19 +847,19 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -873,37 +870,37 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/jour3.xlsx
+++ b/jour3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Score dom</t>
   </si>
@@ -46,43 +46,88 @@
     <t>Score exte</t>
   </si>
   <si>
-    <t>['Capelle', 'Mendy', 'Sima']</t>
-  </si>
-  <si>
-    <t>['Magnetti', 'Brassier', 'Elis']</t>
-  </si>
-  <si>
-    <t>['Dembele', 'Dembele']</t>
-  </si>
-  <si>
-    <t>['Sanchez', 'Caqueret']</t>
-  </si>
-  <si>
-    <t>['Maripan', 'Ben_Yedder']</t>
-  </si>
-  <si>
-    <t>['Gameiro', 'Mothiba']</t>
-  </si>
-  <si>
-    <t>['ChaÃ¯bi']</t>
-  </si>
-  <si>
-    <t>['Silva']</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>['Laporte', 'Le_Goff', 'Innocent', 'Laporte']</t>
+  </si>
+  <si>
+    <t>['Balogin', 'Moalida', 'Flips', 'Balogin']</t>
+  </si>
+  <si>
+    <t>['Gastien', 'Wieteska', 'Massolin']</t>
+  </si>
+  <si>
+    <t>['Soler', 'Verrati']</t>
+  </si>
+  <si>
+    <t>['Ratao', 'Spierings']</t>
+  </si>
+  <si>
+    <t>['Dante', 'Diop']</t>
+  </si>
+  <si>
+    <t>['Dugimont', 'Merdji']</t>
+  </si>
+  <si>
+    <t>['Salmier']</t>
+  </si>
+  <si>
+    <t>['Delort']</t>
+  </si>
+  <si>
+    <t>['Cherki']</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lille</t>
   </si>
   <si>
     <t>Angers</t>
   </si>
   <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
     <t>Brest</t>
   </si>
   <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>OL</t>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lens</t>
   </si>
   <si>
     <t>AS Monaco</t>
@@ -91,73 +136,34 @@
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>['Beka', 'Moffi']</t>
-  </si>
-  <si>
-    <t>['Mendes', 'Verrati']</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Gigot', 'Harit']</t>
-  </si>
-  <si>
-    <t>['Gradit', 'Valencia', 'Fortes']</t>
-  </si>
-  <si>
-    <t>['Simon']</t>
-  </si>
-  <si>
-    <t>['Savanier', 'Wahi']</t>
-  </si>
-  <si>
-    <t>['Vidal', 'Alphonse']</t>
-  </si>
-  <si>
-    <t>['Abdelhamid', 'Cajuste', 'Lopy']</t>
-  </si>
-  <si>
-    <t>['Rodon', 'Santamaria']</t>
+    <t>['Bailly', 'Harit']</t>
+  </si>
+  <si>
+    <t>['David']</t>
+  </si>
+  <si>
+    <t>['Masson']</t>
+  </si>
+  <si>
+    <t>['Sakho']</t>
+  </si>
+  <si>
+    <t>['Magnetti', 'Chardonnet', 'Tavares']</t>
+  </si>
+  <si>
+    <t>['Roure', 'Silla']</t>
+  </si>
+  <si>
+    <t>['Assignon', 'Gouiri']</t>
+  </si>
+  <si>
+    <t>['Medina', 'Sylla', 'Pereira']</t>
+  </si>
+  <si>
+    <t>['Ben_Yedder', 'Ben_Yedder', 'Serrano', 'Jakobs']</t>
+  </si>
+  <si>
+    <t>['Gameiro']</t>
   </si>
 </sst>
 </file>
@@ -558,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -567,33 +573,33 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -602,100 +608,100 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -707,7 +713,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -716,16 +722,16 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -736,66 +742,66 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -803,7 +809,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -812,33 +818,33 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J9">
         <v>3</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -847,60 +853,60 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
